--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92221.49374576155</v>
+        <v>16933000.05168688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92221.49374576155</v>
+        <v>16933000.05168688</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35683.96901080479</v>
+        <v>4519274.791900261</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35683.96901080479</v>
+        <v>4519274.791900261</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418398285.67406</v>
+        <v>53033167.42609605</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11519.03670748352</v>
+        <v>1197741.667418376</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22075.42480029403</v>
+        <v>2247811.954275754</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32631.81289310451</v>
+        <v>3297882.241133133</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43276.03971873985</v>
+        <v>4329214.845682218</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53856.72895265118</v>
+        <v>5381593.791693976</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64398.62908899986</v>
+        <v>6435408.889220084</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74921.97572445772</v>
+        <v>7536682.854138467</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85372.68663855344</v>
+        <v>8631960.377052838</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96165.28652523291</v>
+        <v>9657110.499892678</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106434.3398451694</v>
+        <v>10792347.27753801</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116550.2752834936</v>
+        <v>11929649.14429013</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126649.2330210321</v>
+        <v>13065151.37475897</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136748.1907585705</v>
+        <v>14200653.60522781</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147612.2503631298</v>
+        <v>15187967.64846581</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159915.5163652343</v>
+        <v>15907865.30263931</v>
       </c>
     </row>
   </sheetData>
